--- a/DESIGN/DesignDoc.xlsx
+++ b/DESIGN/DesignDoc.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="135" windowWidth="28035" windowHeight="11880"/>
+    <workbookView xWindow="360" yWindow="135" windowWidth="28035" windowHeight="11880" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="ApplicationArchitecture" sheetId="3" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="42">
   <si>
     <t>-</t>
   </si>
@@ -125,6 +125,30 @@
   </si>
   <si>
     <t>No.</t>
+  </si>
+  <si>
+    <t>approval by</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Boon Kee</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>load data in application initiation and save it in termination</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Swarna</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>C(extends)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>C(extends)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -589,7 +613,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="V17" sqref="V17"/>
     </sheetView>
   </sheetViews>
@@ -611,7 +635,7 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="T14" sqref="T14"/>
+      <selection activeCell="D35" sqref="D35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -633,8 +657,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B2:J23"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D30" sqref="D30"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J8" sqref="J8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -725,13 +749,13 @@
         <v>10</v>
       </c>
       <c r="H8" s="6" t="s">
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="I8" s="6" t="s">
         <v>10</v>
       </c>
       <c r="J8" s="6" t="s">
-        <v>10</v>
+        <v>41</v>
       </c>
     </row>
     <row r="9" spans="2:10" ht="18.75">
@@ -957,7 +981,7 @@
   <dimension ref="B2:G6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C28" sqref="C28"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75"/>
@@ -978,7 +1002,9 @@
       <c r="C2" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="D2" s="7"/>
+      <c r="D2" s="7" t="s">
+        <v>36</v>
+      </c>
       <c r="E2" s="7"/>
       <c r="F2" s="7"/>
       <c r="G2" s="7"/>
@@ -998,10 +1024,19 @@
       <c r="C4" s="8" t="s">
         <v>32</v>
       </c>
+      <c r="D4" s="8" t="s">
+        <v>37</v>
+      </c>
     </row>
     <row r="5" spans="2:7">
       <c r="B5" s="9">
         <v>3</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="D5" s="8" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="6" spans="2:7">

--- a/DESIGN/DesignDoc.xlsx
+++ b/DESIGN/DesignDoc.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="135" windowWidth="28035" windowHeight="11880" activeTab="2"/>
+    <workbookView xWindow="360" yWindow="135" windowWidth="28035" windowHeight="11880" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="ApplicationArchitecture" sheetId="3" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="44">
   <si>
     <t>-</t>
   </si>
@@ -148,6 +148,14 @@
   </si>
   <si>
     <t>C(extends)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>every record has a unique primary key as identity, like for Product key is productId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>when a object is associate with other objects, for instance, a product appears in some transaction, it should not be deleted or modified its primary key</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -260,7 +268,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -284,6 +292,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -657,7 +668,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B2:J23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="J8" sqref="J8"/>
     </sheetView>
   </sheetViews>
@@ -978,10 +989,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B2:G6"/>
+  <dimension ref="B2:G7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75"/>
@@ -1013,7 +1024,7 @@
       <c r="B3" s="9">
         <v>1</v>
       </c>
-      <c r="C3" s="8" t="s">
+      <c r="C3" s="11" t="s">
         <v>33</v>
       </c>
     </row>
@@ -1021,7 +1032,7 @@
       <c r="B4" s="9">
         <v>2</v>
       </c>
-      <c r="C4" s="8" t="s">
+      <c r="C4" s="11" t="s">
         <v>32</v>
       </c>
       <c r="D4" s="8" t="s">
@@ -1032,16 +1043,27 @@
       <c r="B5" s="9">
         <v>3</v>
       </c>
-      <c r="C5" s="8" t="s">
+      <c r="C5" s="11" t="s">
         <v>38</v>
       </c>
       <c r="D5" s="8" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="6" spans="2:7">
+    <row r="6" spans="2:7" ht="37.5">
       <c r="B6" s="9">
         <v>4</v>
+      </c>
+      <c r="C6" s="11" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="7" spans="2:7" ht="56.25">
+      <c r="B7" s="9">
+        <v>5</v>
+      </c>
+      <c r="C7" s="11" t="s">
+        <v>43</v>
       </c>
     </row>
   </sheetData>

--- a/DESIGN/DesignDoc.xlsx
+++ b/DESIGN/DesignDoc.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="45">
   <si>
     <t>-</t>
   </si>
@@ -135,10 +135,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>load data in application initiation and save it in termination</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Swarna</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -151,11 +147,19 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>every record has a unique primary key as identity, like for Product key is productId</t>
+    <t>when a object is associate with other objects, for instance, a product appears in some transaction, it should not be deleted or modified its primary key</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>when a object is associate with other objects, for instance, a product appears in some transaction, it should not be deleted or modified its primary key</t>
+    <t xml:space="preserve">Every record has a unique primary key as identity, like for Product the primary key is productId. </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Load data in application initiation and save it in termination</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>On checkout screen, we should input barcode to get product info.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -268,7 +272,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -287,13 +291,18 @@
     <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -630,8 +639,8 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="2.75" style="10" customWidth="1"/>
-    <col min="2" max="16384" width="9" style="10"/>
+    <col min="1" max="1" width="2.75" style="8" customWidth="1"/>
+    <col min="2" max="16384" width="9" style="8"/>
   </cols>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -760,13 +769,13 @@
         <v>10</v>
       </c>
       <c r="H8" s="6" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="I8" s="6" t="s">
         <v>10</v>
       </c>
       <c r="J8" s="6" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="9" spans="2:10" ht="18.75">
@@ -989,81 +998,89 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B2:G7"/>
+  <dimension ref="B2:G8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75"/>
   <cols>
-    <col min="1" max="1" width="4.25" style="8" customWidth="1"/>
-    <col min="2" max="2" width="7.125" style="9" customWidth="1"/>
-    <col min="3" max="3" width="71.375" style="8" customWidth="1"/>
-    <col min="4" max="4" width="16.75" style="8" customWidth="1"/>
-    <col min="5" max="5" width="15.625" style="8" customWidth="1"/>
-    <col min="6" max="6" width="14.375" style="8" customWidth="1"/>
-    <col min="7" max="16384" width="9" style="8"/>
+    <col min="1" max="1" width="4.25" style="10" customWidth="1"/>
+    <col min="2" max="2" width="7.125" style="11" customWidth="1"/>
+    <col min="3" max="3" width="71.375" style="10" customWidth="1"/>
+    <col min="4" max="4" width="16.75" style="10" customWidth="1"/>
+    <col min="5" max="5" width="15.625" style="10" customWidth="1"/>
+    <col min="6" max="6" width="14.375" style="10" customWidth="1"/>
+    <col min="7" max="16384" width="9" style="10"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:7">
-      <c r="B2" s="7" t="s">
+      <c r="B2" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="C2" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="D2" s="7" t="s">
+      <c r="D2" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="E2" s="7"/>
-      <c r="F2" s="7"/>
-      <c r="G2" s="7"/>
+      <c r="E2" s="9"/>
+      <c r="F2" s="9"/>
+      <c r="G2" s="9"/>
     </row>
     <row r="3" spans="2:7">
-      <c r="B3" s="9">
+      <c r="B3" s="11">
         <v>1</v>
       </c>
-      <c r="C3" s="11" t="s">
+      <c r="C3" s="12" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="4" spans="2:7">
-      <c r="B4" s="9">
+      <c r="B4" s="11">
         <v>2</v>
       </c>
-      <c r="C4" s="11" t="s">
+      <c r="C4" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="D4" s="8" t="s">
+      <c r="D4" s="10" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="5" spans="2:7">
-      <c r="B5" s="9">
+      <c r="B5" s="11">
         <v>3</v>
       </c>
-      <c r="C5" s="11" t="s">
+      <c r="C5" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="D5" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="D5" s="8" t="s">
-        <v>39</v>
-      </c>
     </row>
     <row r="6" spans="2:7" ht="37.5">
-      <c r="B6" s="9">
-        <v>4</v>
-      </c>
-      <c r="C6" s="11" t="s">
+      <c r="B6" s="11">
+        <v>4</v>
+      </c>
+      <c r="C6" s="12" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="7" spans="2:7" ht="56.25">
-      <c r="B7" s="9">
+    <row r="7" spans="2:7">
+      <c r="B7" s="11">
         <v>5</v>
       </c>
-      <c r="C7" s="11" t="s">
-        <v>43</v>
+      <c r="C7" s="12" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="8" spans="2:7" ht="56.25">
+      <c r="B8" s="11">
+        <v>6</v>
+      </c>
+      <c r="C8" s="12" t="s">
+        <v>41</v>
       </c>
     </row>
   </sheetData>

--- a/DESIGN/DesignDoc.xlsx
+++ b/DESIGN/DesignDoc.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="43">
   <si>
     <t>-</t>
   </si>
@@ -118,17 +118,10 @@
     <t>Save a snapshot of relevant product's price in [transaction.dat] file</t>
   </si>
   <si>
-    <t>Category management should provide vendor management function</t>
-  </si>
-  <si>
     <t>Assumption</t>
   </si>
   <si>
     <t>No.</t>
-  </si>
-  <si>
-    <t>approval by</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Boon Kee</t>
@@ -159,7 +152,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>On checkout screen, we should input barcode to get product info.</t>
+    <t>approval</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -769,13 +762,13 @@
         <v>10</v>
       </c>
       <c r="H8" s="6" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="I8" s="6" t="s">
         <v>10</v>
       </c>
       <c r="J8" s="6" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="9" spans="2:10" ht="18.75">
@@ -1001,7 +994,7 @@
   <dimension ref="B2:G8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75"/>
@@ -1017,13 +1010,13 @@
   <sheetData>
     <row r="2" spans="2:7">
       <c r="B2" s="9" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D2" s="9" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="E2" s="9"/>
       <c r="F2" s="9"/>
@@ -1034,7 +1027,10 @@
         <v>1</v>
       </c>
       <c r="C3" s="12" t="s">
-        <v>33</v>
+        <v>32</v>
+      </c>
+      <c r="D3" s="10" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="4" spans="2:7">
@@ -1042,46 +1038,33 @@
         <v>2</v>
       </c>
       <c r="C4" s="12" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="D4" s="10" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="5" spans="2:7">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="5" spans="2:7" ht="37.5">
       <c r="B5" s="11">
         <v>3</v>
       </c>
       <c r="C5" s="12" t="s">
-        <v>43</v>
-      </c>
-      <c r="D5" s="10" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="6" spans="2:7" ht="37.5">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="6" spans="2:7" ht="56.25">
       <c r="B6" s="11">
         <v>4</v>
       </c>
       <c r="C6" s="12" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
     </row>
     <row r="7" spans="2:7">
-      <c r="B7" s="11">
-        <v>5</v>
-      </c>
-      <c r="C7" s="12" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="8" spans="2:7" ht="56.25">
-      <c r="B8" s="11">
-        <v>6</v>
-      </c>
-      <c r="C8" s="12" t="s">
-        <v>41</v>
-      </c>
+      <c r="C7" s="12"/>
+    </row>
+    <row r="8" spans="2:7">
+      <c r="C8" s="12"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
